--- a/AP50_TestData_Create Credit or Debit Memo_21C.xlsx
+++ b/AP50_TestData_Create Credit or Debit Memo_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBF6006-83F7-4AC4-BAB1-057BCDEB1A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAF85F1-0CB8-4D48-BF92-31F1670C9267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>UserName</t>
   </si>
@@ -669,37 +669,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="X2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="12" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="12"/>
-    <col min="8" max="8" width="16.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="12" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="12"/>
+    <col min="8" max="8" width="16.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.6328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.36328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.6328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.08984375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.36328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.08984375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.33203125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.109375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.33203125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.109375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="11" style="12" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="17.26953125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="25.26953125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="13.36328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="17.26953125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="39.36328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.6328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="9.7265625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.36328125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="18" width="17.21875" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="25.21875" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="13.33203125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="23" width="17.21875" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="39.33203125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.6640625" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.77734375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.33203125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="29" width="16" style="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="14.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="12"/>
+    <col min="30" max="30" width="14.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
@@ -781,7 +781,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -849,27 +849,18 @@
         <v>31</v>
       </c>
       <c r="W2" s="11"/>
-      <c r="X2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="X2" r:id="rId1" display="https://edrx.fa.us2.oraclecloud.com/" xr:uid="{F75E2865-82FE-4584-BBE8-608A51E2413D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -881,9 +872,9 @@
       <selection activeCell="A16" sqref="A16:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -898,9 +889,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -958,7 +949,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
